--- a/Sprint#3/TAREAS_USUARIOS_SIGAB.xlsx
+++ b/Sprint#3/TAREAS_USUARIOS_SIGAB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\OneDrive\Documents\GitHub\SIGAB\Sprint#3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF48301F-7626-4763-AFCB-ABBD453EAB03}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA852CF4-E115-4CDC-961A-84F44F0285B1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3075" yWindow="3075" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -353,7 +353,7 @@
       <charset val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -374,7 +374,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -433,7 +457,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -454,8 +478,35 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -467,18 +518,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -763,8 +802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -781,25 +820,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
@@ -829,25 +868,25 @@
       <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="G3" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="H3" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="I3" s="15" t="s">
+      <c r="C3" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="I3" s="9" t="s">
         <v>69</v>
       </c>
     </row>
@@ -858,25 +897,25 @@
       <c r="B4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="H4" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="I4" s="15" t="s">
+      <c r="C4" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="I4" s="9" t="s">
         <v>69</v>
       </c>
     </row>
@@ -887,25 +926,25 @@
       <c r="B5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="H5" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="I5" s="15" t="s">
+      <c r="C5" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="I5" s="9" t="s">
         <v>69</v>
       </c>
     </row>
@@ -916,25 +955,25 @@
       <c r="B6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="H6" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="I6" s="15" t="s">
+      <c r="C6" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="I6" s="9" t="s">
         <v>69</v>
       </c>
     </row>
@@ -945,25 +984,25 @@
       <c r="B7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="G7" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="H7" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="I7" s="15" t="s">
+      <c r="C7" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="I7" s="9" t="s">
         <v>69</v>
       </c>
     </row>
@@ -974,25 +1013,25 @@
       <c r="B8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="G8" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="H8" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="I8" s="15" t="s">
+      <c r="C8" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="I8" s="9" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1003,25 +1042,25 @@
       <c r="B9" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="H9" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="I9" s="15" t="s">
+      <c r="C9" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="I9" s="9" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1032,25 +1071,25 @@
       <c r="B10" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="G10" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="H10" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="I10" s="15" t="s">
+      <c r="C10" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="I10" s="9" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1061,25 +1100,25 @@
       <c r="B11" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="G11" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="H11" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="I11" s="15" t="s">
+      <c r="C11" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="I11" s="9" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1090,25 +1129,25 @@
       <c r="B12" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="G12" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="H12" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="I12" s="15" t="s">
+      <c r="C12" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="I12" s="9" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1119,25 +1158,25 @@
       <c r="B13" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="G13" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="H13" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="I13" s="15" t="s">
+      <c r="C13" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="I13" s="9" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1148,25 +1187,25 @@
       <c r="B14" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="G14" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="H14" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="I14" s="15" t="s">
+      <c r="C14" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="I14" s="9" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1177,25 +1216,25 @@
       <c r="B15" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="F15" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="G15" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="H15" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="I15" s="15" t="s">
+      <c r="C15" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="I15" s="9" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1206,25 +1245,25 @@
       <c r="B16" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="F16" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="G16" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="H16" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="I16" s="15" t="s">
+      <c r="C16" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="I16" s="9" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1235,25 +1274,25 @@
       <c r="B17" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="F17" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="G17" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="H17" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="I17" s="15" t="s">
+      <c r="C17" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="I17" s="9" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1264,25 +1303,25 @@
       <c r="B18" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="F18" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="G18" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="H18" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="I18" s="15" t="s">
+      <c r="C18" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="I18" s="9" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1293,25 +1332,25 @@
       <c r="B19" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C19" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="F19" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="G19" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="H19" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="I19" s="15" t="s">
+      <c r="C19" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="I19" s="9" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1322,25 +1361,25 @@
       <c r="B20" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C20" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="E20" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="F20" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="G20" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="H20" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="I20" s="15" t="s">
+      <c r="C20" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="I20" s="9" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1351,25 +1390,25 @@
       <c r="B21" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C21" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="F21" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="G21" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="H21" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="I21" s="15" t="s">
+      <c r="C21" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="I21" s="9" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1380,25 +1419,25 @@
       <c r="B22" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C22" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="E22" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="F22" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="G22" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="H22" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="I22" s="15" t="s">
+      <c r="C22" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="I22" s="9" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1409,21 +1448,21 @@
       <c r="B23" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C23" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="E23" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="F23" s="13" t="s">
+      <c r="C23" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F23" s="8" t="s">
         <v>69</v>
       </c>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
-      <c r="I23" s="8" t="s">
+      <c r="I23" s="10" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1434,16 +1473,16 @@
       <c r="B24" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="E24" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="F24" s="13" t="s">
+      <c r="C24" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F24" s="8" t="s">
         <v>69</v>
       </c>
       <c r="G24" s="6"/>
@@ -1457,21 +1496,21 @@
       <c r="B25" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="E25" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="F25" s="13" t="s">
+      <c r="C25" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F25" s="8" t="s">
         <v>69</v>
       </c>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
-      <c r="I25" s="8" t="s">
+      <c r="I25" s="10" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1482,21 +1521,21 @@
       <c r="B26" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="D26" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="E26" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="F26" s="13" t="s">
+      <c r="C26" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F26" s="8" t="s">
         <v>69</v>
       </c>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
-      <c r="I26" s="8" t="s">
+      <c r="I26" s="10" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1507,21 +1546,21 @@
       <c r="B27" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C27" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="E27" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="F27" s="13" t="s">
+      <c r="C27" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F27" s="8" t="s">
         <v>69</v>
       </c>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
-      <c r="I27" s="8" t="s">
+      <c r="I27" s="10" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1532,21 +1571,21 @@
       <c r="B28" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="D28" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="E28" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="F28" s="13" t="s">
+      <c r="C28" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F28" s="8" t="s">
         <v>69</v>
       </c>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
-      <c r="I28" s="8" t="s">
+      <c r="I28" s="10" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1557,21 +1596,21 @@
       <c r="B29" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="E29" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="F29" s="13" t="s">
+      <c r="C29" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F29" s="8" t="s">
         <v>69</v>
       </c>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
-      <c r="I29" s="8" t="s">
+      <c r="I29" s="10" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1582,16 +1621,16 @@
       <c r="B30" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C30" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="D30" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="E30" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="F30" s="13" t="s">
+      <c r="C30" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F30" s="8" t="s">
         <v>69</v>
       </c>
       <c r="G30" s="6"/>
@@ -1605,21 +1644,21 @@
       <c r="B31" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C31" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="D31" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="E31" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="F31" s="13" t="s">
+      <c r="C31" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F31" s="8" t="s">
         <v>69</v>
       </c>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
-      <c r="I31" s="8" t="s">
+      <c r="I31" s="10" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1631,18 +1670,18 @@
         <v>34</v>
       </c>
       <c r="C32" s="7"/>
-      <c r="D32" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="E32" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="F32" s="13" t="s">
+      <c r="D32" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="F32" s="16" t="s">
         <v>69</v>
       </c>
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
-      <c r="I32" s="8" t="s">
+      <c r="I32" s="10" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1654,18 +1693,18 @@
         <v>38</v>
       </c>
       <c r="C33" s="7"/>
-      <c r="D33" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="E33" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="F33" s="13" t="s">
+      <c r="D33" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="E33" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="F33" s="16" t="s">
         <v>69</v>
       </c>
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
-      <c r="I33" s="8" t="s">
+      <c r="I33" s="10" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1677,18 +1716,18 @@
         <v>40</v>
       </c>
       <c r="C34" s="7"/>
-      <c r="D34" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="E34" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="F34" s="13" t="s">
+      <c r="D34" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="E34" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="F34" s="16" t="s">
         <v>69</v>
       </c>
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
-      <c r="I34" s="8" t="s">
+      <c r="I34" s="10" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1700,18 +1739,18 @@
         <v>46</v>
       </c>
       <c r="C35" s="7"/>
-      <c r="D35" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="E35" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="F35" s="13" t="s">
+      <c r="D35" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="E35" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="F35" s="16" t="s">
         <v>69</v>
       </c>
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
-      <c r="I35" s="8" t="s">
+      <c r="I35" s="10" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1723,18 +1762,18 @@
         <v>48</v>
       </c>
       <c r="C36" s="7"/>
-      <c r="D36" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="E36" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="F36" s="13" t="s">
+      <c r="D36" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="E36" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="F36" s="16" t="s">
         <v>69</v>
       </c>
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
-      <c r="I36" s="8" t="s">
+      <c r="I36" s="10" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1746,18 +1785,18 @@
         <v>52</v>
       </c>
       <c r="C37" s="7"/>
-      <c r="D37" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="E37" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="F37" s="13" t="s">
+      <c r="D37" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="E37" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="F37" s="16" t="s">
         <v>69</v>
       </c>
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
-      <c r="I37" s="8" t="s">
+      <c r="I37" s="10" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1769,16 +1808,16 @@
         <v>58</v>
       </c>
       <c r="C38" s="7"/>
-      <c r="D38" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="E38" s="7"/>
-      <c r="F38" s="16" t="s">
+      <c r="D38" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="E38" s="17"/>
+      <c r="F38" s="12" t="s">
         <v>69</v>
       </c>
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
-      <c r="I38" s="8" t="s">
+      <c r="I38" s="10" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1790,16 +1829,16 @@
         <v>60</v>
       </c>
       <c r="C39" s="7"/>
-      <c r="D39" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="E39" s="7"/>
-      <c r="F39" s="16" t="s">
+      <c r="D39" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="E39" s="17"/>
+      <c r="F39" s="12" t="s">
         <v>69</v>
       </c>
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
-      <c r="I39" s="8" t="s">
+      <c r="I39" s="10" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1813,14 +1852,14 @@
       <c r="C40" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="D40" s="5"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="14" t="s">
+      <c r="D40" s="13"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="15" t="s">
         <v>69</v>
       </c>
       <c r="G40" s="5"/>
       <c r="H40" s="6"/>
-      <c r="I40" s="8" t="s">
+      <c r="I40" s="10" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1834,14 +1873,14 @@
       <c r="C41" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="D41" s="5"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="14" t="s">
+      <c r="D41" s="13"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="15" t="s">
         <v>69</v>
       </c>
       <c r="G41" s="5"/>
       <c r="H41" s="6"/>
-      <c r="I41" s="8" t="s">
+      <c r="I41" s="10" t="s">
         <v>69</v>
       </c>
     </row>
